--- a/biology/Médecine/Laurent_Schwartz_(oncologue)/Laurent_Schwartz_(oncologue).xlsx
+++ b/biology/Médecine/Laurent_Schwartz_(oncologue)/Laurent_Schwartz_(oncologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Schwartz est un cancérologue français né en 1958 à Strasbourg.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine alsacienne, son père était doyen de la faculté de médecine[1]. Il est le mari d’Anne-Catherine Robert Hauglustaine, professeur à la Sorbonne et membre de l’Académie des sciences et technologies[réf. souhaitée].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine alsacienne, son père était doyen de la faculté de médecine. Il est le mari d’Anne-Catherine Robert Hauglustaine, professeur à la Sorbonne et membre de l’Académie des sciences et technologies[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Études et travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de médecine à Strasbourg, Laurent Schwartz part aux États-Unis. Il est chercheur au National Cancer Institute puis médecin de 1985 à 1990 au Massachusetts General Hospital rattaché à la faculté de médecine de Harvard à Boston dans le Massachusetts, où il se spécialise en oncologie[2],[1],[3].
-Il revient en France en 1990 où il est recruté comme radiothérapeute par l'Assistance publique - Hôpitaux de Paris (1993)[4],[3].
-En 2016, il publie Cancer : un traitement simple et non toxique, l'ouvrage est préfacé par Luc Montagnier.  Laurent Schwartz considère que le cancer est « dans 97 à 98 % des cas une maladie du vieillissement, métabolique, causée par une digestion inappropriée des sucres, et non génétique ». Il reprend ainsi le travail d'Otto Heinrich Warburg dans les années 1930[5]. Pour Laurent Schwartz, le cancer serait une maladie métabolique, alimenté par une défaillance de l’activité mitochondriale des cellules de l’organisme humain[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de médecine à Strasbourg, Laurent Schwartz part aux États-Unis. Il est chercheur au National Cancer Institute puis médecin de 1985 à 1990 au Massachusetts General Hospital rattaché à la faculté de médecine de Harvard à Boston dans le Massachusetts, où il se spécialise en oncologie.
+Il revient en France en 1990 où il est recruté comme radiothérapeute par l'Assistance publique - Hôpitaux de Paris (1993),.
+En 2016, il publie Cancer : un traitement simple et non toxique, l'ouvrage est préfacé par Luc Montagnier.  Laurent Schwartz considère que le cancer est « dans 97 à 98 % des cas une maladie du vieillissement, métabolique, causée par une digestion inappropriée des sucres, et non génétique ». Il reprend ainsi le travail d'Otto Heinrich Warburg dans les années 1930. Pour Laurent Schwartz, le cancer serait une maladie métabolique, alimenté par une défaillance de l’activité mitochondriale des cellules de l’organisme humain,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Métastases : vérités sur le cancer., Hachette littératures, 1998
 Cancer : Between Glycolysis and Physical Constraint., Springer Science+Business Media, 2004
